--- a/src/generate-budget-plan/templates/TemplateOPEX.xlsx
+++ b/src/generate-budget-plan/templates/TemplateOPEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\genExcel\src\generate-budget-plan\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE755-F03C-45C9-BE3E-F70D65982731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711023E-173F-4085-A16F-F71A168A165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCD810A2-0739-4465-885B-45F005A03ACD}"/>
   </bookViews>
@@ -43,6 +43,8 @@
   <authors>
     <author>Napaphat Chulitrat</author>
     <author>Radawan Kumsaikaew</author>
+    <author>Yasinee Saksuralai</author>
+    <author>Apichaya Chimsawat</author>
   </authors>
   <commentList>
     <comment ref="N3" authorId="0" shapeId="0" xr:uid="{C5B703B3-4533-426E-A478-80E5AF2F125B}">
@@ -84,12 +86,154 @@
         </r>
       </text>
     </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{1BA872A5-C2AF-4AE3-AAD0-EA7F7D9196C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ขอให้ใส่ Reference Group Code 2022กรณีที่เป็น Continuous Budget</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="2" shapeId="0" xr:uid="{A133D38F-68F0-45E5-AB32-313BF88973CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Continuous Budget : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Budget ที่ตั้งต่อเนื่องทุกๆ ปี รวมถึงรายการที่มี Contract Period ข้ามปี ยาวต่อเนื่องมาจนถึงปี 2021
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">New Budget: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Budget สำหรับโครงการใหม่ๆ ที่เพิ่งเกิดขึ้น</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{E49004C8-B240-4430-A756-EA90256FB8DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">เช่น
+1500 (MMT)
+1200 (AWN)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="3" shapeId="0" xr:uid="{2A4CBFC0-83C2-4199-9741-57B666F5C546}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Apichayac:
+Budget ที่ตั้ง Support business ใด เช่น Mass, Mobile, FBB, Enterprise,
+*กรุณาเลิกจาก Drop down list*</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="3" shapeId="0" xr:uid="{D9AB765E-DECD-47D5-AABB-0908F8C31BB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*กรุณาเลิกจาก Drop down list*</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{FC143DA1-0202-47A4-8053-9F9EDBE2D775}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PO Value : ยอดเงินที่ออกใน PO ทั้งจำนวนในปี 2023
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="1" shapeId="0" xr:uid="{30CD7E9B-4BAA-4B58-A90D-19151C15DE5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="12"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ยอดงบประมาณรวมที่อนุมัติ โดยนำมาหารเฉลี่ยตาม Contract Period เป็นการตั้ง Accrue ตามงานที่เกิดขึ้นของ Project นี้ ในปีงบประมาณ
+(ยอด Sum JAN-DEC 2023)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Group Code
 2022</t>
@@ -175,6 +319,109 @@
   </si>
   <si>
     <t xml:space="preserve"> ( SUM JAN-DEC 2023)</t>
+  </si>
+  <si>
+    <r>
+      <t>*กรณี Re Org. เปลี่ยน Cost Center รายการที่เคยเปิด PO ไปแล้วในปี 2022 แต่มี Contract Period ข้ามปียาวต่อเนื่องจนถึง 2023 ต้อง</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ตั้ง Budget ด้วย cost center เดิม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ที่เปิด PO ไปแล้ว*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Continuous Budget = Budget ที่ตั้งต่อเนื่องทุกๆ ปี รวมถึงรายการที่มี Contract Period ข้ามปี ยาวต่อเนื่องมาจนถึงปี 2023 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ให้ระบุ Group Code 2022 ด้วย</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>New Budget = Budget สำหรับโครงการใหม่ๆ ที่เพิ่งเกิดขึ้นในปี 2023</t>
+  </si>
+  <si>
+    <t>รายการ Internal Charge หรือรายการที่ตั้งงบเพื่อจ่ายบริษัทในเครือ ให้ตั้งงบประมาณแยกไว้ที่ตารางด้านล่าง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Charge </t>
+  </si>
+  <si>
+    <t>Title/ Activity</t>
+  </si>
+  <si>
+    <t>Accrue Expense 2023
+(Budget in Y2023)</t>
+  </si>
+  <si>
+    <t>(Mobile/Telephon number)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -187,7 +434,7 @@
     <numFmt numFmtId="188" formatCode="B1mmm\-yy"/>
     <numFmt numFmtId="189" formatCode="[$THB]\ #,##0.00;\-[$THB]\ #,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +538,46 @@
       <sz val="8"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -332,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -483,6 +770,69 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -503,7 +853,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,65 +871,8 @@
     <xf numFmtId="188" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,6 +909,121 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -937,11 +1345,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E989055-0376-4C15-BB62-D06B73BF61E3}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -956,171 +1362,171 @@
     <col min="19" max="42" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:42" s="21" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:42" s="40" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="41" t="s">
+    <row r="2" spans="1:42" s="21" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="7" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="9"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="34"/>
     </row>
     <row r="4" spans="1:42" s="1" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="11"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="40"/>
       <c r="S4" s="3">
         <v>44927</v>
       </c>
@@ -1192,11 +1598,289 @@
       </c>
       <c r="AP4" s="6">
         <v>45627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15">
+      <c r="B6" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="46"/>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" thickBot="1">
+      <c r="A13" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+    </row>
+    <row r="14" spans="1:42" ht="27.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="52"/>
+      <c r="P14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="34"/>
+    </row>
+    <row r="15" spans="1:42" ht="15" thickBot="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG15" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH15" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ15" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK15" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL15" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM15" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN15" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO15" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP15" s="64" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:AP4" xr:uid="{2E989055-0376-4C15-BB62-D06B73BF61E3}"/>
-  <mergeCells count="19">
+  <mergeCells count="38">
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:AD14"/>
+    <mergeCell ref="AE14:AP14"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:AD3"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1209,13 +1893,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
